--- a/mutator/python/examples/csp_integration.2020.06.10/faultModel.xlsx
+++ b/mutator/python/examples/csp_integration.2020.06.10/faultModel.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/faqas_datadrivenmutator/mutator/python/examples/csp_integration.2020.06.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C825106-7899-DC48-8E51-4141B60F19A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E378609-7DC4-5D4C-B60E-82497C2DE53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1840" windowWidth="28040" windowHeight="16640" xr2:uid="{80CD8F1F-C783-FD44-BEF2-139EB2136127}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16640" xr2:uid="{80CD8F1F-C783-FD44-BEF2-139EB2136127}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="faultModel" localSheetId="0">Sheet1!$A$1:$J$6</definedName>
+    <definedName name="faultModel" localSheetId="0">Sheet1!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,88 +27,10 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Fabrizio PASTORE</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3C6B8735-6CF2-244C-904A-D9D02612D0B7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fabrizio PASTORE:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>It means to flip bit number 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{3006B976-C89C-7940-A1E7-8F31E9764CDE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fabrizio PASTORE:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It means to replace a valid value with a value euqal to 
-31+1
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C33BABFE-C8FF-C34B-852C-200D9FF85C80}" name="faultModel" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/fabrizio.pastore/SVV-GIT/faqas_datadrivenmutator/mutator/python/examples/csp_integration.2020.06.10/faultModel.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/fabrizio.pastore/SVV-GIT/faqas_datadrivenmutator/mutator/python/examples/csp_integration.2020.06.10/faultModel.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -127,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t>FaultModel</t>
   </si>
@@ -159,9 +81,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>BIN</t>
   </si>
   <si>
@@ -180,41 +99,41 @@
     <t>packet-&gt;id.flags</t>
   </si>
   <si>
-    <t>packet-&gt;id.sport</t>
-  </si>
-  <si>
-    <t>packet-&gt;id.dport</t>
-  </si>
-  <si>
-    <t>packet-&gt;id.dst</t>
-  </si>
-  <si>
-    <t>packet-&gt;id.src</t>
-  </si>
-  <si>
-    <t>packet-&gt;id.pri</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>INV</t>
   </si>
   <si>
-    <t>INV?</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>packet-&gt;id.dport Destiation port</t>
+  </si>
+  <si>
+    <t>packet-&gt;id.dst Destination address</t>
+  </si>
+  <si>
+    <t>packet-&gt;id.src Source address</t>
+  </si>
+  <si>
+    <t>packet-&gt;id.sport Source port</t>
+  </si>
+  <si>
+    <t>packet-&gt;id.pri Priority</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>First bit of payload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,17 +148,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,13 +172,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,11 +513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F1F0E2-E42E-F443-B12B-F6D05E1750B4}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F1F0E2-E42E-F443-B12B-F6D05E1750B4}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,275 +531,560 @@
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mutator/python/examples/csp_integration.2020.06.10/faultModel.xlsx
+++ b/mutator/python/examples/csp_integration.2020.06.10/faultModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/faqas_datadrivenmutator/mutator/python/examples/csp_integration.2020.06.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E378609-7DC4-5D4C-B60E-82497C2DE53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC73049-4499-D846-B5DC-CE0469BDBACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16640" xr2:uid="{80CD8F1F-C783-FD44-BEF2-139EB2136127}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
